--- a/www/IndicatorsPerCountry/Nicaragua_CopperProduction_TerritorialRef_1946_2012_CCode_558.xlsx
+++ b/www/IndicatorsPerCountry/Nicaragua_CopperProduction_TerritorialRef_1946_2012_CCode_558.xlsx
@@ -231,13 +231,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Nicaragua_CopperProduction_TerritorialRef_1946_2012_CCode_558.xlsx
+++ b/www/IndicatorsPerCountry/Nicaragua_CopperProduction_TerritorialRef_1946_2012_CCode_558.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="39">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,169 +39,61 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>1.2</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
   <si>
     <t>0.3</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>17.1</t>
-  </si>
-  <si>
-    <t>24.2</t>
-  </si>
-  <si>
-    <t>20.9</t>
-  </si>
-  <si>
-    <t>32.8</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>13.9</t>
-  </si>
-  <si>
-    <t>14.1</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>13.8</t>
-  </si>
-  <si>
-    <t>12.99</t>
-  </si>
-  <si>
-    <t>13.02</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>14.55</t>
-  </si>
-  <si>
-    <t>14.6</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>7.747</t>
-  </si>
-  <si>
-    <t>7.08</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>11.8</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>17.7</t>
+    <t>0.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -3753,7 +3645,7 @@
         <v>1929.0</v>
       </c>
       <c r="E204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
@@ -3957,7 +3849,7 @@
         <v>1941.0</v>
       </c>
       <c r="E216" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
@@ -3974,7 +3866,7 @@
         <v>1942.0</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
@@ -3991,7 +3883,7 @@
         <v>1943.0</v>
       </c>
       <c r="E218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
@@ -4008,7 +3900,7 @@
         <v>1944.0</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
@@ -4042,7 +3934,7 @@
         <v>1946.0</v>
       </c>
       <c r="E221" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
@@ -4076,7 +3968,7 @@
         <v>1948.0</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
@@ -4161,7 +4053,7 @@
         <v>1953.0</v>
       </c>
       <c r="E228" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
@@ -4229,7 +4121,7 @@
         <v>1957.0</v>
       </c>
       <c r="E232" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
@@ -4246,7 +4138,7 @@
         <v>1958.0</v>
       </c>
       <c r="E233" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
@@ -4263,7 +4155,7 @@
         <v>1959.0</v>
       </c>
       <c r="E234" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235">
@@ -4280,7 +4172,7 @@
         <v>1960.0</v>
       </c>
       <c r="E235" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236">
@@ -4297,7 +4189,7 @@
         <v>1961.0</v>
       </c>
       <c r="E236" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
@@ -4314,7 +4206,7 @@
         <v>1962.0</v>
       </c>
       <c r="E237" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238">
@@ -4331,7 +4223,7 @@
         <v>1963.0</v>
       </c>
       <c r="E238" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239">
@@ -4348,7 +4240,7 @@
         <v>1964.0</v>
       </c>
       <c r="E239" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240">
@@ -4365,7 +4257,7 @@
         <v>1965.0</v>
       </c>
       <c r="E240" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241">
@@ -4382,7 +4274,7 @@
         <v>1966.0</v>
       </c>
       <c r="E241" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242">
@@ -4399,7 +4291,7 @@
         <v>1967.0</v>
       </c>
       <c r="E242" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243">
@@ -4416,7 +4308,7 @@
         <v>1968.0</v>
       </c>
       <c r="E243" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244">
@@ -4433,7 +4325,7 @@
         <v>1969.0</v>
       </c>
       <c r="E244" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245">
@@ -4450,7 +4342,7 @@
         <v>1970.0</v>
       </c>
       <c r="E245" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246">
@@ -4467,7 +4359,7 @@
         <v>1971.0</v>
       </c>
       <c r="E246" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247">
@@ -4484,7 +4376,7 @@
         <v>1972.0</v>
       </c>
       <c r="E247" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248">
@@ -4501,7 +4393,7 @@
         <v>1973.0</v>
       </c>
       <c r="E248" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249">
@@ -4518,7 +4410,7 @@
         <v>1974.0</v>
       </c>
       <c r="E249" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250">
@@ -4535,7 +4427,7 @@
         <v>1975.0</v>
       </c>
       <c r="E250" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251">
@@ -4552,7 +4444,7 @@
         <v>1976.0</v>
       </c>
       <c r="E251" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252">
@@ -4569,7 +4461,7 @@
         <v>1977.0</v>
       </c>
       <c r="E252" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253">
@@ -4586,7 +4478,7 @@
         <v>1978.0</v>
       </c>
       <c r="E253" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254">
@@ -4603,7 +4495,7 @@
         <v>1979.0</v>
       </c>
       <c r="E254" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
@@ -4620,7 +4512,7 @@
         <v>1980.0</v>
       </c>
       <c r="E255" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -4637,7 +4529,7 @@
         <v>1981.0</v>
       </c>
       <c r="E256" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
@@ -4654,7 +4546,7 @@
         <v>1982.0</v>
       </c>
       <c r="E257" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
@@ -4671,7 +4563,7 @@
         <v>1983.0</v>
       </c>
       <c r="E258" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
@@ -4688,7 +4580,7 @@
         <v>1984.0</v>
       </c>
       <c r="E259" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
@@ -4705,7 +4597,7 @@
         <v>1985.0</v>
       </c>
       <c r="E260" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
@@ -4722,7 +4614,7 @@
         <v>1986.0</v>
       </c>
       <c r="E261" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
@@ -4739,7 +4631,7 @@
         <v>1987.0</v>
       </c>
       <c r="E262" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
@@ -4756,7 +4648,7 @@
         <v>1988.0</v>
       </c>
       <c r="E263" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
@@ -4773,7 +4665,7 @@
         <v>1989.0</v>
       </c>
       <c r="E264" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265">
@@ -4790,7 +4682,7 @@
         <v>1990.0</v>
       </c>
       <c r="E265" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
@@ -4807,7 +4699,7 @@
         <v>1991.0</v>
       </c>
       <c r="E266" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267">
@@ -4824,7 +4716,7 @@
         <v>1992.0</v>
       </c>
       <c r="E267" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
@@ -4841,7 +4733,7 @@
         <v>1993.0</v>
       </c>
       <c r="E268" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
@@ -4858,7 +4750,7 @@
         <v>1994.0</v>
       </c>
       <c r="E269" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
@@ -4875,7 +4767,7 @@
         <v>1995.0</v>
       </c>
       <c r="E270" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
@@ -4892,7 +4784,7 @@
         <v>1996.0</v>
       </c>
       <c r="E271" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
@@ -4909,7 +4801,7 @@
         <v>1997.0</v>
       </c>
       <c r="E272" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
@@ -4926,7 +4818,7 @@
         <v>1998.0</v>
       </c>
       <c r="E273" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
@@ -4943,7 +4835,7 @@
         <v>1999.0</v>
       </c>
       <c r="E274" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
@@ -4960,7 +4852,7 @@
         <v>2000.0</v>
       </c>
       <c r="E275" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276">
@@ -4977,7 +4869,7 @@
         <v>2001.0</v>
       </c>
       <c r="E276" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277">
@@ -4994,7 +4886,7 @@
         <v>2002.0</v>
       </c>
       <c r="E277" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278">
@@ -5011,7 +4903,7 @@
         <v>2003.0</v>
       </c>
       <c r="E278" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
@@ -5028,7 +4920,7 @@
         <v>2004.0</v>
       </c>
       <c r="E279" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
@@ -5045,7 +4937,7 @@
         <v>2005.0</v>
       </c>
       <c r="E280" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
@@ -5062,7 +4954,7 @@
         <v>2006.0</v>
       </c>
       <c r="E281" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282">
@@ -5079,7 +4971,7 @@
         <v>2007.0</v>
       </c>
       <c r="E282" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283">
@@ -5096,7 +4988,7 @@
         <v>2008.0</v>
       </c>
       <c r="E283" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284">
@@ -5113,7 +5005,7 @@
         <v>2009.0</v>
       </c>
       <c r="E284" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="285">
@@ -5130,7 +5022,7 @@
         <v>2010.0</v>
       </c>
       <c r="E285" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
@@ -5147,7 +5039,7 @@
         <v>2011.0</v>
       </c>
       <c r="E286" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287">
@@ -5164,7 +5056,7 @@
         <v>2012.0</v>
       </c>
       <c r="E287" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5182,50 +5074,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
